--- a/categories-prospects.xlsx
+++ b/categories-prospects.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43F226-FD83-4970-A893-615A6AA7E9C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9438C0-1463-41F4-B385-63841ECA53E4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,28 +20,224 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Catégorie</t>
-  </si>
-  <si>
-    <t>Sous-Catégorie</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+  <si>
+    <t>Construction et gros œuvre</t>
+  </si>
+  <si>
+    <t>Médecine, professions médicales et paramédicales</t>
+  </si>
+  <si>
+    <t>Conseil et service immobilier</t>
+  </si>
+  <si>
+    <t>Soin beauté, bien être</t>
+  </si>
+  <si>
+    <t>Hôtel, restaurant</t>
+  </si>
+  <si>
+    <t>Administration et service public</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Audiovisuel</t>
+  </si>
+  <si>
+    <t>Décoration</t>
+  </si>
+  <si>
+    <t>Equipement et accessoire</t>
+  </si>
+  <si>
+    <t>Grande distribution</t>
+  </si>
+  <si>
+    <t>Ingénérie</t>
+  </si>
+  <si>
+    <t>Institutionnel</t>
+  </si>
+  <si>
+    <t>Jouet, gadget et souvenir</t>
+  </si>
+  <si>
+    <t>Loisirs</t>
+  </si>
+  <si>
+    <t>Médecine vétérinaire</t>
+  </si>
+  <si>
+    <t>Métallurgie</t>
+  </si>
+  <si>
+    <t>Nettoyage, démolition, recyclage</t>
+  </si>
+  <si>
+    <t>Pharmaceutique</t>
+  </si>
+  <si>
+    <t>Revêtement de sol</t>
+  </si>
+  <si>
+    <t>Tabac</t>
+  </si>
+  <si>
+    <t>Textile</t>
+  </si>
+  <si>
+    <t>Agriculture et nature</t>
+  </si>
+  <si>
+    <t>Aide et assistance</t>
+  </si>
+  <si>
+    <t>Auto-école</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>Equipement et accessoire de beauté</t>
+  </si>
+  <si>
+    <t>Equipement et accessoire de sport</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Logistique</t>
+  </si>
+  <si>
+    <t>Sécurité et surveillance</t>
+  </si>
+  <si>
+    <t>Transport de marchandises</t>
+  </si>
+  <si>
+    <t>Véhicule</t>
+  </si>
+  <si>
+    <t>Bar, café, club</t>
+  </si>
+  <si>
+    <t>Emploi et recrutement</t>
+  </si>
+  <si>
+    <t>Habillement</t>
+  </si>
+  <si>
+    <t>Service social</t>
+  </si>
+  <si>
+    <t>Affichage et enseigne</t>
+  </si>
+  <si>
+    <t>Aménagement extérieur</t>
+  </si>
+  <si>
+    <t>Banque et service bancaire</t>
+  </si>
+  <si>
+    <t>Caoutchouc et plastique</t>
+  </si>
+  <si>
+    <t>Electricité, éclairage</t>
+  </si>
+  <si>
+    <t>Entretien et nettoyage</t>
+  </si>
+  <si>
+    <t>Evénement, foire, fête</t>
+  </si>
+  <si>
+    <t>Institution scolaire</t>
+  </si>
+  <si>
+    <t>Librairie et papeterie</t>
+  </si>
+  <si>
+    <t>Animaux</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Electronique et électricité</t>
+  </si>
+  <si>
+    <t>Entretien de véhicule</t>
+  </si>
+  <si>
+    <t>Fleur et plante</t>
+  </si>
+  <si>
+    <t>Mode et beauté</t>
+  </si>
+  <si>
+    <t>Voyage et tourisme</t>
+  </si>
+  <si>
+    <t>Activité spécialisée</t>
+  </si>
+  <si>
+    <t>Equipement et fourniture de construction</t>
+  </si>
+  <si>
+    <t>Informatique et télécom</t>
+  </si>
+  <si>
+    <t>Menuiserie</t>
+  </si>
+  <si>
+    <t>Activité commerciale</t>
+  </si>
+  <si>
+    <t>Activité sportive</t>
+  </si>
+  <si>
+    <t>Aménagement intérieur</t>
+  </si>
+  <si>
+    <t>Boisson</t>
+  </si>
+  <si>
+    <t>Fabricant et grossiste</t>
+  </si>
+  <si>
+    <t>Publicité, communication</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Chauffage sanitaire et plomberie</t>
+  </si>
+  <si>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Analyses, conseils et études</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>Formation et séminaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,11 +265,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,27 +547,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:A73">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
